--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Year</t>
   </si>
@@ -41,34 +41,325 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 8,57,708</t>
-  </si>
-  <si>
-    <t>₹ 62,969</t>
-  </si>
-  <si>
-    <t>₹ 20,125</t>
-  </si>
-  <si>
-    <t>₹ 9,40,802</t>
-  </si>
-  <si>
-    <t>₹ 6,42,292</t>
-  </si>
-  <si>
-    <t>57.18%</t>
+    <t>₹ 1,51,037</t>
+  </si>
+  <si>
+    <t>₹ 8,27,701</t>
+  </si>
+  <si>
+    <t>₹ 43,750</t>
+  </si>
+  <si>
+    <t>₹ 10,22,488</t>
+  </si>
+  <si>
+    <t>₹ 1,48,48,963</t>
+  </si>
+  <si>
+    <t>1.01%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 15,335</t>
-  </si>
-  <si>
-    <t>₹ 14,375</t>
-  </si>
-  <si>
-    <t>₹ 6,72,001</t>
+    <t>₹ 2,79,131</t>
+  </si>
+  <si>
+    <t>₹ 13,98,705</t>
+  </si>
+  <si>
+    <t>₹ 75,000</t>
+  </si>
+  <si>
+    <t>₹ 17,52,836</t>
+  </si>
+  <si>
+    <t>₹ 1,45,69,832</t>
+  </si>
+  <si>
+    <t>2.87%</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>₹ 3,06,834</t>
+  </si>
+  <si>
+    <t>₹ 13,71,002</t>
+  </si>
+  <si>
+    <t>₹ 1,42,62,998</t>
+  </si>
+  <si>
+    <t>4.91%</t>
+  </si>
+  <si>
+    <t>2027</t>
+  </si>
+  <si>
+    <t>₹ 3,37,286</t>
+  </si>
+  <si>
+    <t>₹ 13,40,550</t>
+  </si>
+  <si>
+    <t>₹ 1,39,25,712</t>
+  </si>
+  <si>
+    <t>7.16%</t>
+  </si>
+  <si>
+    <t>2028</t>
+  </si>
+  <si>
+    <t>₹ 3,70,761</t>
+  </si>
+  <si>
+    <t>₹ 13,07,075</t>
+  </si>
+  <si>
+    <t>₹ 1,35,54,950</t>
+  </si>
+  <si>
+    <t>9.63%</t>
+  </si>
+  <si>
+    <t>2029</t>
+  </si>
+  <si>
+    <t>₹ 4,07,558</t>
+  </si>
+  <si>
+    <t>₹ 12,70,278</t>
+  </si>
+  <si>
+    <t>₹ 1,31,47,392</t>
+  </si>
+  <si>
+    <t>12.35%</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>₹ 4,48,008</t>
+  </si>
+  <si>
+    <t>₹ 12,29,828</t>
+  </si>
+  <si>
+    <t>₹ 1,26,99,384</t>
+  </si>
+  <si>
+    <t>15.34%</t>
+  </si>
+  <si>
+    <t>2031</t>
+  </si>
+  <si>
+    <t>₹ 4,92,471</t>
+  </si>
+  <si>
+    <t>₹ 11,85,365</t>
+  </si>
+  <si>
+    <t>₹ 1,22,06,913</t>
+  </si>
+  <si>
+    <t>18.62%</t>
+  </si>
+  <si>
+    <t>2032</t>
+  </si>
+  <si>
+    <t>₹ 5,41,348</t>
+  </si>
+  <si>
+    <t>₹ 11,36,488</t>
+  </si>
+  <si>
+    <t>₹ 1,16,65,565</t>
+  </si>
+  <si>
+    <t>22.23%</t>
+  </si>
+  <si>
+    <t>2033</t>
+  </si>
+  <si>
+    <t>₹ 5,95,075</t>
+  </si>
+  <si>
+    <t>₹ 10,82,761</t>
+  </si>
+  <si>
+    <t>₹ 1,10,70,489</t>
+  </si>
+  <si>
+    <t>26.2%</t>
+  </si>
+  <si>
+    <t>2034</t>
+  </si>
+  <si>
+    <t>₹ 6,54,135</t>
+  </si>
+  <si>
+    <t>₹ 10,23,701</t>
+  </si>
+  <si>
+    <t>₹ 1,04,16,354</t>
+  </si>
+  <si>
+    <t>30.56%</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>₹ 7,19,057</t>
+  </si>
+  <si>
+    <t>₹ 9,58,780</t>
+  </si>
+  <si>
+    <t>₹ 96,97,297</t>
+  </si>
+  <si>
+    <t>35.35%</t>
+  </si>
+  <si>
+    <t>2036</t>
+  </si>
+  <si>
+    <t>₹ 7,90,421</t>
+  </si>
+  <si>
+    <t>₹ 8,87,415</t>
+  </si>
+  <si>
+    <t>₹ 89,06,876</t>
+  </si>
+  <si>
+    <t>40.62%</t>
+  </si>
+  <si>
+    <t>2037</t>
+  </si>
+  <si>
+    <t>₹ 8,68,869</t>
+  </si>
+  <si>
+    <t>₹ 8,08,968</t>
+  </si>
+  <si>
+    <t>₹ 80,38,008</t>
+  </si>
+  <si>
+    <t>46.41%</t>
+  </si>
+  <si>
+    <t>2038</t>
+  </si>
+  <si>
+    <t>₹ 9,55,102</t>
+  </si>
+  <si>
+    <t>₹ 7,22,734</t>
+  </si>
+  <si>
+    <t>₹ 70,82,906</t>
+  </si>
+  <si>
+    <t>52.78%</t>
+  </si>
+  <si>
+    <t>2039</t>
+  </si>
+  <si>
+    <t>₹ 10,49,893</t>
+  </si>
+  <si>
+    <t>₹ 6,27,943</t>
+  </si>
+  <si>
+    <t>₹ 60,33,013</t>
+  </si>
+  <si>
+    <t>59.78%</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>₹ 11,54,093</t>
+  </si>
+  <si>
+    <t>₹ 5,23,744</t>
+  </si>
+  <si>
+    <t>₹ 48,78,920</t>
+  </si>
+  <si>
+    <t>67.47%</t>
+  </si>
+  <si>
+    <t>2041</t>
+  </si>
+  <si>
+    <t>₹ 12,68,634</t>
+  </si>
+  <si>
+    <t>₹ 4,09,203</t>
+  </si>
+  <si>
+    <t>₹ 36,10,286</t>
+  </si>
+  <si>
+    <t>75.93%</t>
+  </si>
+  <si>
+    <t>2042</t>
+  </si>
+  <si>
+    <t>₹ 13,94,542</t>
+  </si>
+  <si>
+    <t>₹ 2,83,294</t>
+  </si>
+  <si>
+    <t>₹ 22,15,744</t>
+  </si>
+  <si>
+    <t>85.23%</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>₹ 15,32,947</t>
+  </si>
+  <si>
+    <t>₹ 1,44,889</t>
+  </si>
+  <si>
+    <t>₹ 6,82,797</t>
+  </si>
+  <si>
+    <t>95.45%</t>
+  </si>
+  <si>
+    <t>2044</t>
+  </si>
+  <si>
+    <t>₹ 16,302</t>
+  </si>
+  <si>
+    <t>₹ 31,250</t>
+  </si>
+  <si>
+    <t>₹ 7,30,348</t>
   </si>
   <si>
     <t>₹ 0</t>
@@ -176,22 +467,459 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" t="s">
+        <v>93</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C21" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>109</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" t="s">
+        <v>113</v>
+      </c>
+      <c r="E22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+      <c r="G22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Year</t>
   </si>
@@ -28,344 +28,268 @@
     <t>Taxes, Home Insurance &amp; Maintenance (C)</t>
   </si>
   <si>
-    <t>Total Payment
-(A + B + C)</t>
+    <t/>
   </si>
   <si>
     <t>Balance</t>
   </si>
   <si>
-    <t>Loan Paid To Date</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 1,51,037</t>
-  </si>
-  <si>
-    <t>₹ 8,27,701</t>
-  </si>
-  <si>
-    <t>₹ 43,750</t>
-  </si>
-  <si>
-    <t>₹ 10,22,488</t>
-  </si>
-  <si>
-    <t>₹ 1,48,48,963</t>
-  </si>
-  <si>
-    <t>1.01%</t>
+    <t>₹ 75,519</t>
+  </si>
+  <si>
+    <t>₹ 4,13,850</t>
+  </si>
+  <si>
+    <t>₹ 30,625</t>
+  </si>
+  <si>
+    <t>₹ 74,24,481</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 2,79,131</t>
-  </si>
-  <si>
-    <t>₹ 13,98,705</t>
-  </si>
-  <si>
-    <t>₹ 75,000</t>
-  </si>
-  <si>
-    <t>₹ 17,52,836</t>
-  </si>
-  <si>
-    <t>₹ 1,45,69,832</t>
-  </si>
-  <si>
-    <t>2.87%</t>
+    <t>₹ 1,39,565</t>
+  </si>
+  <si>
+    <t>₹ 6,99,353</t>
+  </si>
+  <si>
+    <t>₹ 52,500</t>
+  </si>
+  <si>
+    <t>₹ 72,84,916</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 3,06,834</t>
-  </si>
-  <si>
-    <t>₹ 13,71,002</t>
-  </si>
-  <si>
-    <t>₹ 1,42,62,998</t>
-  </si>
-  <si>
-    <t>4.91%</t>
+    <t>₹ 1,53,417</t>
+  </si>
+  <si>
+    <t>₹ 6,85,501</t>
+  </si>
+  <si>
+    <t>₹ 71,31,499</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 3,37,286</t>
-  </si>
-  <si>
-    <t>₹ 13,40,550</t>
-  </si>
-  <si>
-    <t>₹ 1,39,25,712</t>
-  </si>
-  <si>
-    <t>7.16%</t>
+    <t>₹ 1,68,643</t>
+  </si>
+  <si>
+    <t>₹ 6,70,275</t>
+  </si>
+  <si>
+    <t>₹ 69,62,856</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 3,70,761</t>
-  </si>
-  <si>
-    <t>₹ 13,07,075</t>
-  </si>
-  <si>
-    <t>₹ 1,35,54,950</t>
-  </si>
-  <si>
-    <t>9.63%</t>
+    <t>₹ 1,85,381</t>
+  </si>
+  <si>
+    <t>₹ 6,53,537</t>
+  </si>
+  <si>
+    <t>₹ 67,77,475</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 4,07,558</t>
-  </si>
-  <si>
-    <t>₹ 12,70,278</t>
-  </si>
-  <si>
-    <t>₹ 1,31,47,392</t>
-  </si>
-  <si>
-    <t>12.35%</t>
+    <t>₹ 2,03,779</t>
+  </si>
+  <si>
+    <t>₹ 6,35,139</t>
+  </si>
+  <si>
+    <t>₹ 65,73,696</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 4,48,008</t>
-  </si>
-  <si>
-    <t>₹ 12,29,828</t>
-  </si>
-  <si>
-    <t>₹ 1,26,99,384</t>
-  </si>
-  <si>
-    <t>15.34%</t>
+    <t>₹ 2,24,004</t>
+  </si>
+  <si>
+    <t>₹ 6,14,914</t>
+  </si>
+  <si>
+    <t>₹ 63,49,692</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 4,92,471</t>
-  </si>
-  <si>
-    <t>₹ 11,85,365</t>
-  </si>
-  <si>
-    <t>₹ 1,22,06,913</t>
-  </si>
-  <si>
-    <t>18.62%</t>
+    <t>₹ 2,46,236</t>
+  </si>
+  <si>
+    <t>₹ 5,92,682</t>
+  </si>
+  <si>
+    <t>₹ 61,03,456</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 5,41,348</t>
-  </si>
-  <si>
-    <t>₹ 11,36,488</t>
-  </si>
-  <si>
-    <t>₹ 1,16,65,565</t>
-  </si>
-  <si>
-    <t>22.23%</t>
+    <t>₹ 2,70,674</t>
+  </si>
+  <si>
+    <t>₹ 5,68,244</t>
+  </si>
+  <si>
+    <t>₹ 58,32,782</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 5,95,075</t>
-  </si>
-  <si>
-    <t>₹ 10,82,761</t>
-  </si>
-  <si>
-    <t>₹ 1,10,70,489</t>
-  </si>
-  <si>
-    <t>26.2%</t>
+    <t>₹ 2,97,538</t>
+  </si>
+  <si>
+    <t>₹ 5,41,380</t>
+  </si>
+  <si>
+    <t>₹ 55,35,245</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 6,54,135</t>
-  </si>
-  <si>
-    <t>₹ 10,23,701</t>
-  </si>
-  <si>
-    <t>₹ 1,04,16,354</t>
-  </si>
-  <si>
-    <t>30.56%</t>
+    <t>₹ 3,27,068</t>
+  </si>
+  <si>
+    <t>₹ 5,11,850</t>
+  </si>
+  <si>
+    <t>₹ 52,08,177</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 7,19,057</t>
-  </si>
-  <si>
-    <t>₹ 9,58,780</t>
-  </si>
-  <si>
-    <t>₹ 96,97,297</t>
-  </si>
-  <si>
-    <t>35.35%</t>
+    <t>₹ 3,59,528</t>
+  </si>
+  <si>
+    <t>₹ 4,79,390</t>
+  </si>
+  <si>
+    <t>₹ 48,48,649</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 7,90,421</t>
-  </si>
-  <si>
-    <t>₹ 8,87,415</t>
-  </si>
-  <si>
-    <t>₹ 89,06,876</t>
-  </si>
-  <si>
-    <t>40.62%</t>
+    <t>₹ 3,95,211</t>
+  </si>
+  <si>
+    <t>₹ 4,43,707</t>
+  </si>
+  <si>
+    <t>₹ 44,53,438</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 8,68,869</t>
-  </si>
-  <si>
-    <t>₹ 8,08,968</t>
-  </si>
-  <si>
-    <t>₹ 80,38,008</t>
-  </si>
-  <si>
-    <t>46.41%</t>
+    <t>₹ 4,34,434</t>
+  </si>
+  <si>
+    <t>₹ 4,04,484</t>
+  </si>
+  <si>
+    <t>₹ 40,19,004</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 9,55,102</t>
-  </si>
-  <si>
-    <t>₹ 7,22,734</t>
-  </si>
-  <si>
-    <t>₹ 70,82,906</t>
-  </si>
-  <si>
-    <t>52.78%</t>
+    <t>₹ 4,77,551</t>
+  </si>
+  <si>
+    <t>₹ 3,61,367</t>
+  </si>
+  <si>
+    <t>₹ 35,41,453</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 10,49,893</t>
-  </si>
-  <si>
-    <t>₹ 6,27,943</t>
-  </si>
-  <si>
-    <t>₹ 60,33,013</t>
-  </si>
-  <si>
-    <t>59.78%</t>
+    <t>₹ 5,24,947</t>
+  </si>
+  <si>
+    <t>₹ 3,13,971</t>
+  </si>
+  <si>
+    <t>₹ 30,16,506</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 11,54,093</t>
-  </si>
-  <si>
-    <t>₹ 5,23,744</t>
-  </si>
-  <si>
-    <t>₹ 48,78,920</t>
-  </si>
-  <si>
-    <t>67.47%</t>
+    <t>₹ 5,77,046</t>
+  </si>
+  <si>
+    <t>₹ 2,61,872</t>
+  </si>
+  <si>
+    <t>₹ 24,39,460</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 12,68,634</t>
-  </si>
-  <si>
-    <t>₹ 4,09,203</t>
-  </si>
-  <si>
-    <t>₹ 36,10,286</t>
-  </si>
-  <si>
-    <t>75.93%</t>
+    <t>₹ 6,34,317</t>
+  </si>
+  <si>
+    <t>₹ 2,04,601</t>
+  </si>
+  <si>
+    <t>₹ 18,05,143</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 13,94,542</t>
-  </si>
-  <si>
-    <t>₹ 2,83,294</t>
-  </si>
-  <si>
-    <t>₹ 22,15,744</t>
-  </si>
-  <si>
-    <t>85.23%</t>
+    <t>₹ 6,97,271</t>
+  </si>
+  <si>
+    <t>₹ 1,41,647</t>
+  </si>
+  <si>
+    <t>₹ 11,07,872</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 15,32,947</t>
-  </si>
-  <si>
-    <t>₹ 1,44,889</t>
-  </si>
-  <si>
-    <t>₹ 6,82,797</t>
-  </si>
-  <si>
-    <t>95.45%</t>
+    <t>₹ 7,66,474</t>
+  </si>
+  <si>
+    <t>₹ 72,444</t>
+  </si>
+  <si>
+    <t>₹ 3,41,398</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 16,302</t>
-  </si>
-  <si>
-    <t>₹ 31,250</t>
-  </si>
-  <si>
-    <t>₹ 7,30,348</t>
+    <t>₹ 8,151</t>
+  </si>
+  <si>
+    <t>₹ 21,875</t>
   </si>
   <si>
     <t>₹ 0</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -436,490 +360,490 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Year</t>
   </si>
@@ -28,268 +28,344 @@
     <t>Taxes, Home Insurance &amp; Maintenance (C)</t>
   </si>
   <si>
-    <t/>
+    <t>Total Payment
+(A + B + C)</t>
   </si>
   <si>
     <t>Balance</t>
   </si>
   <si>
+    <t>Loan Paid To Date</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 75,519</t>
-  </si>
-  <si>
-    <t>₹ 4,13,850</t>
-  </si>
-  <si>
-    <t>₹ 30,625</t>
-  </si>
-  <si>
-    <t>₹ 74,24,481</t>
+    <t>₹ 1,60,794</t>
+  </si>
+  <si>
+    <t>₹ 7,83,918</t>
+  </si>
+  <si>
+    <t>₹ 43,750</t>
+  </si>
+  <si>
+    <t>₹ 9,88,462</t>
+  </si>
+  <si>
+    <t>₹ 1,48,39,206</t>
+  </si>
+  <si>
+    <t>1.07%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 1,39,565</t>
-  </si>
-  <si>
-    <t>₹ 6,99,353</t>
-  </si>
-  <si>
-    <t>₹ 52,500</t>
-  </si>
-  <si>
-    <t>₹ 72,84,916</t>
+    <t>₹ 2,95,990</t>
+  </si>
+  <si>
+    <t>₹ 13,23,517</t>
+  </si>
+  <si>
+    <t>₹ 75,000</t>
+  </si>
+  <si>
+    <t>₹ 16,94,507</t>
+  </si>
+  <si>
+    <t>₹ 1,45,43,216</t>
+  </si>
+  <si>
+    <t>3.05%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 1,53,417</t>
-  </si>
-  <si>
-    <t>₹ 6,85,501</t>
-  </si>
-  <si>
-    <t>₹ 71,31,499</t>
+    <t>₹ 3,23,756</t>
+  </si>
+  <si>
+    <t>₹ 12,95,751</t>
+  </si>
+  <si>
+    <t>₹ 1,42,19,460</t>
+  </si>
+  <si>
+    <t>5.2%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 1,68,643</t>
-  </si>
-  <si>
-    <t>₹ 6,70,275</t>
-  </si>
-  <si>
-    <t>₹ 69,62,856</t>
+    <t>₹ 3,54,127</t>
+  </si>
+  <si>
+    <t>₹ 12,65,380</t>
+  </si>
+  <si>
+    <t>₹ 1,38,65,333</t>
+  </si>
+  <si>
+    <t>7.56%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 1,85,381</t>
-  </si>
-  <si>
-    <t>₹ 6,53,537</t>
-  </si>
-  <si>
-    <t>₹ 67,77,475</t>
+    <t>₹ 3,87,346</t>
+  </si>
+  <si>
+    <t>₹ 12,32,161</t>
+  </si>
+  <si>
+    <t>₹ 1,34,77,987</t>
+  </si>
+  <si>
+    <t>10.15%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 2,03,779</t>
-  </si>
-  <si>
-    <t>₹ 6,35,139</t>
-  </si>
-  <si>
-    <t>₹ 65,73,696</t>
+    <t>₹ 4,23,682</t>
+  </si>
+  <si>
+    <t>₹ 11,95,825</t>
+  </si>
+  <si>
+    <t>₹ 1,30,54,305</t>
+  </si>
+  <si>
+    <t>12.97%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 2,24,004</t>
-  </si>
-  <si>
-    <t>₹ 6,14,914</t>
-  </si>
-  <si>
-    <t>₹ 63,49,692</t>
+    <t>₹ 4,63,426</t>
+  </si>
+  <si>
+    <t>₹ 11,56,081</t>
+  </si>
+  <si>
+    <t>₹ 1,25,90,879</t>
+  </si>
+  <si>
+    <t>16.06%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 2,46,236</t>
-  </si>
-  <si>
-    <t>₹ 5,92,682</t>
-  </si>
-  <si>
-    <t>₹ 61,03,456</t>
+    <t>₹ 5,06,899</t>
+  </si>
+  <si>
+    <t>₹ 11,12,608</t>
+  </si>
+  <si>
+    <t>₹ 1,20,83,980</t>
+  </si>
+  <si>
+    <t>19.44%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 2,70,674</t>
-  </si>
-  <si>
-    <t>₹ 5,68,244</t>
-  </si>
-  <si>
-    <t>₹ 58,32,782</t>
+    <t>₹ 5,54,449</t>
+  </si>
+  <si>
+    <t>₹ 10,65,057</t>
+  </si>
+  <si>
+    <t>₹ 1,15,29,531</t>
+  </si>
+  <si>
+    <t>23.14%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 2,97,538</t>
-  </si>
-  <si>
-    <t>₹ 5,41,380</t>
-  </si>
-  <si>
-    <t>₹ 55,35,245</t>
+    <t>₹ 6,06,460</t>
+  </si>
+  <si>
+    <t>₹ 10,13,046</t>
+  </si>
+  <si>
+    <t>₹ 1,09,23,070</t>
+  </si>
+  <si>
+    <t>27.18%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 3,27,068</t>
-  </si>
-  <si>
-    <t>₹ 5,11,850</t>
-  </si>
-  <si>
-    <t>₹ 52,08,177</t>
+    <t>₹ 6,63,351</t>
+  </si>
+  <si>
+    <t>₹ 9,56,156</t>
+  </si>
+  <si>
+    <t>₹ 1,02,59,720</t>
+  </si>
+  <si>
+    <t>31.6%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 3,59,528</t>
-  </si>
-  <si>
-    <t>₹ 4,79,390</t>
-  </si>
-  <si>
-    <t>₹ 48,48,649</t>
+    <t>₹ 7,25,578</t>
+  </si>
+  <si>
+    <t>₹ 8,93,929</t>
+  </si>
+  <si>
+    <t>₹ 95,34,142</t>
+  </si>
+  <si>
+    <t>36.44%</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 3,95,211</t>
-  </si>
-  <si>
-    <t>₹ 4,43,707</t>
-  </si>
-  <si>
-    <t>₹ 44,53,438</t>
+    <t>₹ 7,93,642</t>
+  </si>
+  <si>
+    <t>₹ 8,25,865</t>
+  </si>
+  <si>
+    <t>₹ 87,40,501</t>
+  </si>
+  <si>
+    <t>41.73%</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 4,34,434</t>
-  </si>
-  <si>
-    <t>₹ 4,04,484</t>
-  </si>
-  <si>
-    <t>₹ 40,19,004</t>
+    <t>₹ 8,68,091</t>
+  </si>
+  <si>
+    <t>₹ 7,51,416</t>
+  </si>
+  <si>
+    <t>₹ 78,72,410</t>
+  </si>
+  <si>
+    <t>47.52%</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 4,77,551</t>
-  </si>
-  <si>
-    <t>₹ 3,61,367</t>
-  </si>
-  <si>
-    <t>₹ 35,41,453</t>
+    <t>₹ 9,49,524</t>
+  </si>
+  <si>
+    <t>₹ 6,69,983</t>
+  </si>
+  <si>
+    <t>₹ 69,22,886</t>
+  </si>
+  <si>
+    <t>53.85%</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 5,24,947</t>
-  </si>
-  <si>
-    <t>₹ 3,13,971</t>
-  </si>
-  <si>
-    <t>₹ 30,16,506</t>
+    <t>₹ 10,38,596</t>
+  </si>
+  <si>
+    <t>₹ 5,80,911</t>
+  </si>
+  <si>
+    <t>₹ 58,84,291</t>
+  </si>
+  <si>
+    <t>60.77%</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 5,77,046</t>
-  </si>
-  <si>
-    <t>₹ 2,61,872</t>
-  </si>
-  <si>
-    <t>₹ 24,39,460</t>
+    <t>₹ 11,36,023</t>
+  </si>
+  <si>
+    <t>₹ 4,83,484</t>
+  </si>
+  <si>
+    <t>₹ 47,48,268</t>
+  </si>
+  <si>
+    <t>68.34%</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 6,34,317</t>
-  </si>
-  <si>
-    <t>₹ 2,04,601</t>
-  </si>
-  <si>
-    <t>₹ 18,05,143</t>
+    <t>₹ 12,42,590</t>
+  </si>
+  <si>
+    <t>₹ 3,76,917</t>
+  </si>
+  <si>
+    <t>₹ 35,05,678</t>
+  </si>
+  <si>
+    <t>76.63%</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 6,97,271</t>
-  </si>
-  <si>
-    <t>₹ 1,41,647</t>
-  </si>
-  <si>
-    <t>₹ 11,07,872</t>
+    <t>₹ 13,59,153</t>
+  </si>
+  <si>
+    <t>₹ 2,60,353</t>
+  </si>
+  <si>
+    <t>₹ 21,46,525</t>
+  </si>
+  <si>
+    <t>85.69%</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 7,66,474</t>
-  </si>
-  <si>
-    <t>₹ 72,444</t>
-  </si>
-  <si>
-    <t>₹ 3,41,398</t>
+    <t>₹ 14,86,651</t>
+  </si>
+  <si>
+    <t>₹ 1,32,856</t>
+  </si>
+  <si>
+    <t>₹ 6,59,873</t>
+  </si>
+  <si>
+    <t>95.6%</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 8,151</t>
-  </si>
-  <si>
-    <t>₹ 21,875</t>
+    <t>₹ 14,921</t>
+  </si>
+  <si>
+    <t>₹ 31,250</t>
+  </si>
+  <si>
+    <t>₹ 7,06,044</t>
   </si>
   <si>
     <t>₹ 0</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -360,490 +436,490 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>Year</t>
   </si>
@@ -28,344 +28,268 @@
     <t>Taxes, Home Insurance &amp; Maintenance (C)</t>
   </si>
   <si>
-    <t>Total Payment
-(A + B + C)</t>
+    <t/>
   </si>
   <si>
     <t>Balance</t>
   </si>
   <si>
-    <t>Loan Paid To Date</t>
-  </si>
-  <si>
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 1,60,794</t>
-  </si>
-  <si>
-    <t>₹ 7,83,918</t>
-  </si>
-  <si>
-    <t>₹ 43,750</t>
-  </si>
-  <si>
-    <t>₹ 9,88,462</t>
-  </si>
-  <si>
-    <t>₹ 1,48,39,206</t>
-  </si>
-  <si>
-    <t>1.07%</t>
+    <t>₹ 75,519</t>
+  </si>
+  <si>
+    <t>₹ 4,13,850</t>
+  </si>
+  <si>
+    <t>₹ 30,625</t>
+  </si>
+  <si>
+    <t>₹ 74,24,481</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 2,95,990</t>
-  </si>
-  <si>
-    <t>₹ 13,23,517</t>
-  </si>
-  <si>
-    <t>₹ 75,000</t>
-  </si>
-  <si>
-    <t>₹ 16,94,507</t>
-  </si>
-  <si>
-    <t>₹ 1,45,43,216</t>
-  </si>
-  <si>
-    <t>3.05%</t>
+    <t>₹ 1,39,565</t>
+  </si>
+  <si>
+    <t>₹ 6,99,353</t>
+  </si>
+  <si>
+    <t>₹ 52,500</t>
+  </si>
+  <si>
+    <t>₹ 72,84,916</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 3,23,756</t>
-  </si>
-  <si>
-    <t>₹ 12,95,751</t>
-  </si>
-  <si>
-    <t>₹ 1,42,19,460</t>
-  </si>
-  <si>
-    <t>5.2%</t>
+    <t>₹ 1,53,417</t>
+  </si>
+  <si>
+    <t>₹ 6,85,501</t>
+  </si>
+  <si>
+    <t>₹ 71,31,499</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 3,54,127</t>
-  </si>
-  <si>
-    <t>₹ 12,65,380</t>
-  </si>
-  <si>
-    <t>₹ 1,38,65,333</t>
-  </si>
-  <si>
-    <t>7.56%</t>
+    <t>₹ 1,68,643</t>
+  </si>
+  <si>
+    <t>₹ 6,70,275</t>
+  </si>
+  <si>
+    <t>₹ 69,62,856</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 3,87,346</t>
-  </si>
-  <si>
-    <t>₹ 12,32,161</t>
-  </si>
-  <si>
-    <t>₹ 1,34,77,987</t>
-  </si>
-  <si>
-    <t>10.15%</t>
+    <t>₹ 1,85,381</t>
+  </si>
+  <si>
+    <t>₹ 6,53,537</t>
+  </si>
+  <si>
+    <t>₹ 67,77,475</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 4,23,682</t>
-  </si>
-  <si>
-    <t>₹ 11,95,825</t>
-  </si>
-  <si>
-    <t>₹ 1,30,54,305</t>
-  </si>
-  <si>
-    <t>12.97%</t>
+    <t>₹ 2,03,779</t>
+  </si>
+  <si>
+    <t>₹ 6,35,139</t>
+  </si>
+  <si>
+    <t>₹ 65,73,696</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 4,63,426</t>
-  </si>
-  <si>
-    <t>₹ 11,56,081</t>
-  </si>
-  <si>
-    <t>₹ 1,25,90,879</t>
-  </si>
-  <si>
-    <t>16.06%</t>
+    <t>₹ 2,24,004</t>
+  </si>
+  <si>
+    <t>₹ 6,14,914</t>
+  </si>
+  <si>
+    <t>₹ 63,49,692</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 5,06,899</t>
-  </si>
-  <si>
-    <t>₹ 11,12,608</t>
-  </si>
-  <si>
-    <t>₹ 1,20,83,980</t>
-  </si>
-  <si>
-    <t>19.44%</t>
+    <t>₹ 2,46,236</t>
+  </si>
+  <si>
+    <t>₹ 5,92,682</t>
+  </si>
+  <si>
+    <t>₹ 61,03,456</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 5,54,449</t>
-  </si>
-  <si>
-    <t>₹ 10,65,057</t>
-  </si>
-  <si>
-    <t>₹ 1,15,29,531</t>
-  </si>
-  <si>
-    <t>23.14%</t>
+    <t>₹ 2,70,674</t>
+  </si>
+  <si>
+    <t>₹ 5,68,244</t>
+  </si>
+  <si>
+    <t>₹ 58,32,782</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 6,06,460</t>
-  </si>
-  <si>
-    <t>₹ 10,13,046</t>
-  </si>
-  <si>
-    <t>₹ 1,09,23,070</t>
-  </si>
-  <si>
-    <t>27.18%</t>
+    <t>₹ 2,97,538</t>
+  </si>
+  <si>
+    <t>₹ 5,41,380</t>
+  </si>
+  <si>
+    <t>₹ 55,35,245</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 6,63,351</t>
-  </si>
-  <si>
-    <t>₹ 9,56,156</t>
-  </si>
-  <si>
-    <t>₹ 1,02,59,720</t>
-  </si>
-  <si>
-    <t>31.6%</t>
+    <t>₹ 3,27,068</t>
+  </si>
+  <si>
+    <t>₹ 5,11,850</t>
+  </si>
+  <si>
+    <t>₹ 52,08,177</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 7,25,578</t>
-  </si>
-  <si>
-    <t>₹ 8,93,929</t>
-  </si>
-  <si>
-    <t>₹ 95,34,142</t>
-  </si>
-  <si>
-    <t>36.44%</t>
+    <t>₹ 3,59,528</t>
+  </si>
+  <si>
+    <t>₹ 4,79,390</t>
+  </si>
+  <si>
+    <t>₹ 48,48,649</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 7,93,642</t>
-  </si>
-  <si>
-    <t>₹ 8,25,865</t>
-  </si>
-  <si>
-    <t>₹ 87,40,501</t>
-  </si>
-  <si>
-    <t>41.73%</t>
+    <t>₹ 3,95,211</t>
+  </si>
+  <si>
+    <t>₹ 4,43,707</t>
+  </si>
+  <si>
+    <t>₹ 44,53,438</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 8,68,091</t>
-  </si>
-  <si>
-    <t>₹ 7,51,416</t>
-  </si>
-  <si>
-    <t>₹ 78,72,410</t>
-  </si>
-  <si>
-    <t>47.52%</t>
+    <t>₹ 4,34,434</t>
+  </si>
+  <si>
+    <t>₹ 4,04,484</t>
+  </si>
+  <si>
+    <t>₹ 40,19,004</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 9,49,524</t>
-  </si>
-  <si>
-    <t>₹ 6,69,983</t>
-  </si>
-  <si>
-    <t>₹ 69,22,886</t>
-  </si>
-  <si>
-    <t>53.85%</t>
+    <t>₹ 4,77,551</t>
+  </si>
+  <si>
+    <t>₹ 3,61,367</t>
+  </si>
+  <si>
+    <t>₹ 35,41,453</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 10,38,596</t>
-  </si>
-  <si>
-    <t>₹ 5,80,911</t>
-  </si>
-  <si>
-    <t>₹ 58,84,291</t>
-  </si>
-  <si>
-    <t>60.77%</t>
+    <t>₹ 5,24,947</t>
+  </si>
+  <si>
+    <t>₹ 3,13,971</t>
+  </si>
+  <si>
+    <t>₹ 30,16,506</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 11,36,023</t>
-  </si>
-  <si>
-    <t>₹ 4,83,484</t>
-  </si>
-  <si>
-    <t>₹ 47,48,268</t>
-  </si>
-  <si>
-    <t>68.34%</t>
+    <t>₹ 5,77,046</t>
+  </si>
+  <si>
+    <t>₹ 2,61,872</t>
+  </si>
+  <si>
+    <t>₹ 24,39,460</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 12,42,590</t>
-  </si>
-  <si>
-    <t>₹ 3,76,917</t>
-  </si>
-  <si>
-    <t>₹ 35,05,678</t>
-  </si>
-  <si>
-    <t>76.63%</t>
+    <t>₹ 6,34,317</t>
+  </si>
+  <si>
+    <t>₹ 2,04,601</t>
+  </si>
+  <si>
+    <t>₹ 18,05,143</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 13,59,153</t>
-  </si>
-  <si>
-    <t>₹ 2,60,353</t>
-  </si>
-  <si>
-    <t>₹ 21,46,525</t>
-  </si>
-  <si>
-    <t>85.69%</t>
+    <t>₹ 6,97,271</t>
+  </si>
+  <si>
+    <t>₹ 1,41,647</t>
+  </si>
+  <si>
+    <t>₹ 11,07,872</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 14,86,651</t>
-  </si>
-  <si>
-    <t>₹ 1,32,856</t>
-  </si>
-  <si>
-    <t>₹ 6,59,873</t>
-  </si>
-  <si>
-    <t>95.6%</t>
+    <t>₹ 7,66,474</t>
+  </si>
+  <si>
+    <t>₹ 72,444</t>
+  </si>
+  <si>
+    <t>₹ 3,41,398</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 14,921</t>
-  </si>
-  <si>
-    <t>₹ 31,250</t>
-  </si>
-  <si>
-    <t>₹ 7,06,044</t>
+    <t>₹ 8,151</t>
+  </si>
+  <si>
+    <t>₹ 21,875</t>
   </si>
   <si>
     <t>₹ 0</t>
-  </si>
-  <si>
-    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -436,490 +360,490 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="G14" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="G17" t="s">
-        <v>90</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="C18" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s">
-        <v>100</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="C21" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s">
-        <v>110</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="E22" t="s">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>116</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>Year</t>
   </si>
@@ -28,12 +28,16 @@
     <t>Taxes, Home Insurance &amp; Maintenance (C)</t>
   </si>
   <si>
-    <t/>
+    <t>Total Payment
+(A + B + C)</t>
   </si>
   <si>
     <t>Balance</t>
   </si>
   <si>
+    <t>Loan Paid To Date</t>
+  </si>
+  <si>
     <t>2024</t>
   </si>
   <si>
@@ -46,9 +50,15 @@
     <t>₹ 30,625</t>
   </si>
   <si>
+    <t>₹ 5,19,994</t>
+  </si>
+  <si>
     <t>₹ 74,24,481</t>
   </si>
   <si>
+    <t>1.01%</t>
+  </si>
+  <si>
     <t>2025</t>
   </si>
   <si>
@@ -61,9 +71,15 @@
     <t>₹ 52,500</t>
   </si>
   <si>
+    <t>₹ 8,91,418</t>
+  </si>
+  <si>
     <t>₹ 72,84,916</t>
   </si>
   <si>
+    <t>2.87%</t>
+  </si>
+  <si>
     <t>2026</t>
   </si>
   <si>
@@ -76,6 +92,9 @@
     <t>₹ 71,31,499</t>
   </si>
   <si>
+    <t>4.91%</t>
+  </si>
+  <si>
     <t>2027</t>
   </si>
   <si>
@@ -88,6 +107,9 @@
     <t>₹ 69,62,856</t>
   </si>
   <si>
+    <t>7.16%</t>
+  </si>
+  <si>
     <t>2028</t>
   </si>
   <si>
@@ -100,6 +122,9 @@
     <t>₹ 67,77,475</t>
   </si>
   <si>
+    <t>9.63%</t>
+  </si>
+  <si>
     <t>2029</t>
   </si>
   <si>
@@ -112,6 +137,9 @@
     <t>₹ 65,73,696</t>
   </si>
   <si>
+    <t>12.35%</t>
+  </si>
+  <si>
     <t>2030</t>
   </si>
   <si>
@@ -124,6 +152,9 @@
     <t>₹ 63,49,692</t>
   </si>
   <si>
+    <t>15.34%</t>
+  </si>
+  <si>
     <t>2031</t>
   </si>
   <si>
@@ -136,6 +167,9 @@
     <t>₹ 61,03,456</t>
   </si>
   <si>
+    <t>18.62%</t>
+  </si>
+  <si>
     <t>2032</t>
   </si>
   <si>
@@ -148,6 +182,9 @@
     <t>₹ 58,32,782</t>
   </si>
   <si>
+    <t>22.23%</t>
+  </si>
+  <si>
     <t>2033</t>
   </si>
   <si>
@@ -160,6 +197,9 @@
     <t>₹ 55,35,245</t>
   </si>
   <si>
+    <t>26.2%</t>
+  </si>
+  <si>
     <t>2034</t>
   </si>
   <si>
@@ -172,6 +212,9 @@
     <t>₹ 52,08,177</t>
   </si>
   <si>
+    <t>30.56%</t>
+  </si>
+  <si>
     <t>2035</t>
   </si>
   <si>
@@ -184,6 +227,9 @@
     <t>₹ 48,48,649</t>
   </si>
   <si>
+    <t>35.35%</t>
+  </si>
+  <si>
     <t>2036</t>
   </si>
   <si>
@@ -196,6 +242,9 @@
     <t>₹ 44,53,438</t>
   </si>
   <si>
+    <t>40.62%</t>
+  </si>
+  <si>
     <t>2037</t>
   </si>
   <si>
@@ -208,6 +257,9 @@
     <t>₹ 40,19,004</t>
   </si>
   <si>
+    <t>46.41%</t>
+  </si>
+  <si>
     <t>2038</t>
   </si>
   <si>
@@ -220,6 +272,9 @@
     <t>₹ 35,41,453</t>
   </si>
   <si>
+    <t>52.78%</t>
+  </si>
+  <si>
     <t>2039</t>
   </si>
   <si>
@@ -232,6 +287,9 @@
     <t>₹ 30,16,506</t>
   </si>
   <si>
+    <t>59.78%</t>
+  </si>
+  <si>
     <t>2040</t>
   </si>
   <si>
@@ -244,6 +302,9 @@
     <t>₹ 24,39,460</t>
   </si>
   <si>
+    <t>67.47%</t>
+  </si>
+  <si>
     <t>2041</t>
   </si>
   <si>
@@ -256,6 +317,9 @@
     <t>₹ 18,05,143</t>
   </si>
   <si>
+    <t>75.93%</t>
+  </si>
+  <si>
     <t>2042</t>
   </si>
   <si>
@@ -268,6 +332,9 @@
     <t>₹ 11,07,872</t>
   </si>
   <si>
+    <t>85.23%</t>
+  </si>
+  <si>
     <t>2043</t>
   </si>
   <si>
@@ -280,6 +347,9 @@
     <t>₹ 3,41,398</t>
   </si>
   <si>
+    <t>95.45%</t>
+  </si>
+  <si>
     <t>2044</t>
   </si>
   <si>
@@ -289,7 +359,13 @@
     <t>₹ 21,875</t>
   </si>
   <si>
+    <t>₹ 3,71,424</t>
+  </si>
+  <si>
     <t>₹ 0</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
 </sst>
 </file>
@@ -360,490 +436,490 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="C18" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="C22" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -41,325 +41,325 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 75,519</t>
-  </si>
-  <si>
-    <t>₹ 4,13,850</t>
-  </si>
-  <si>
-    <t>₹ 30,625</t>
-  </si>
-  <si>
-    <t>₹ 5,19,994</t>
-  </si>
-  <si>
-    <t>₹ 74,24,481</t>
-  </si>
-  <si>
-    <t>1.01%</t>
+    <t>₹ 1,60,794</t>
+  </si>
+  <si>
+    <t>₹ 7,83,918</t>
+  </si>
+  <si>
+    <t>₹ 43,750</t>
+  </si>
+  <si>
+    <t>₹ 9,88,462</t>
+  </si>
+  <si>
+    <t>₹ 1,48,39,206</t>
+  </si>
+  <si>
+    <t>1.07%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 1,39,565</t>
-  </si>
-  <si>
-    <t>₹ 6,99,353</t>
-  </si>
-  <si>
-    <t>₹ 52,500</t>
-  </si>
-  <si>
-    <t>₹ 8,91,418</t>
-  </si>
-  <si>
-    <t>₹ 72,84,916</t>
-  </si>
-  <si>
-    <t>2.87%</t>
+    <t>₹ 2,95,990</t>
+  </si>
+  <si>
+    <t>₹ 13,23,517</t>
+  </si>
+  <si>
+    <t>₹ 75,000</t>
+  </si>
+  <si>
+    <t>₹ 16,94,507</t>
+  </si>
+  <si>
+    <t>₹ 1,45,43,216</t>
+  </si>
+  <si>
+    <t>3.05%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 1,53,417</t>
-  </si>
-  <si>
-    <t>₹ 6,85,501</t>
-  </si>
-  <si>
-    <t>₹ 71,31,499</t>
-  </si>
-  <si>
-    <t>4.91%</t>
+    <t>₹ 3,23,756</t>
+  </si>
+  <si>
+    <t>₹ 12,95,751</t>
+  </si>
+  <si>
+    <t>₹ 1,42,19,460</t>
+  </si>
+  <si>
+    <t>5.2%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 1,68,643</t>
-  </si>
-  <si>
-    <t>₹ 6,70,275</t>
-  </si>
-  <si>
-    <t>₹ 69,62,856</t>
-  </si>
-  <si>
-    <t>7.16%</t>
+    <t>₹ 3,54,127</t>
+  </si>
+  <si>
+    <t>₹ 12,65,380</t>
+  </si>
+  <si>
+    <t>₹ 1,38,65,333</t>
+  </si>
+  <si>
+    <t>7.56%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 1,85,381</t>
-  </si>
-  <si>
-    <t>₹ 6,53,537</t>
-  </si>
-  <si>
-    <t>₹ 67,77,475</t>
-  </si>
-  <si>
-    <t>9.63%</t>
+    <t>₹ 3,87,346</t>
+  </si>
+  <si>
+    <t>₹ 12,32,161</t>
+  </si>
+  <si>
+    <t>₹ 1,34,77,987</t>
+  </si>
+  <si>
+    <t>10.15%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 2,03,779</t>
-  </si>
-  <si>
-    <t>₹ 6,35,139</t>
-  </si>
-  <si>
-    <t>₹ 65,73,696</t>
-  </si>
-  <si>
-    <t>12.35%</t>
+    <t>₹ 4,23,682</t>
+  </si>
+  <si>
+    <t>₹ 11,95,825</t>
+  </si>
+  <si>
+    <t>₹ 1,30,54,305</t>
+  </si>
+  <si>
+    <t>12.97%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 2,24,004</t>
-  </si>
-  <si>
-    <t>₹ 6,14,914</t>
-  </si>
-  <si>
-    <t>₹ 63,49,692</t>
-  </si>
-  <si>
-    <t>15.34%</t>
+    <t>₹ 4,63,426</t>
+  </si>
+  <si>
+    <t>₹ 11,56,081</t>
+  </si>
+  <si>
+    <t>₹ 1,25,90,879</t>
+  </si>
+  <si>
+    <t>16.06%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 2,46,236</t>
-  </si>
-  <si>
-    <t>₹ 5,92,682</t>
-  </si>
-  <si>
-    <t>₹ 61,03,456</t>
-  </si>
-  <si>
-    <t>18.62%</t>
+    <t>₹ 5,06,899</t>
+  </si>
+  <si>
+    <t>₹ 11,12,608</t>
+  </si>
+  <si>
+    <t>₹ 1,20,83,980</t>
+  </si>
+  <si>
+    <t>19.44%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 2,70,674</t>
-  </si>
-  <si>
-    <t>₹ 5,68,244</t>
-  </si>
-  <si>
-    <t>₹ 58,32,782</t>
-  </si>
-  <si>
-    <t>22.23%</t>
+    <t>₹ 5,54,449</t>
+  </si>
+  <si>
+    <t>₹ 10,65,057</t>
+  </si>
+  <si>
+    <t>₹ 1,15,29,531</t>
+  </si>
+  <si>
+    <t>23.14%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 2,97,538</t>
-  </si>
-  <si>
-    <t>₹ 5,41,380</t>
-  </si>
-  <si>
-    <t>₹ 55,35,245</t>
-  </si>
-  <si>
-    <t>26.2%</t>
+    <t>₹ 6,06,460</t>
+  </si>
+  <si>
+    <t>₹ 10,13,046</t>
+  </si>
+  <si>
+    <t>₹ 1,09,23,070</t>
+  </si>
+  <si>
+    <t>27.18%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 3,27,068</t>
-  </si>
-  <si>
-    <t>₹ 5,11,850</t>
-  </si>
-  <si>
-    <t>₹ 52,08,177</t>
-  </si>
-  <si>
-    <t>30.56%</t>
+    <t>₹ 6,63,351</t>
+  </si>
+  <si>
+    <t>₹ 9,56,156</t>
+  </si>
+  <si>
+    <t>₹ 1,02,59,720</t>
+  </si>
+  <si>
+    <t>31.6%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 3,59,528</t>
-  </si>
-  <si>
-    <t>₹ 4,79,390</t>
-  </si>
-  <si>
-    <t>₹ 48,48,649</t>
-  </si>
-  <si>
-    <t>35.35%</t>
+    <t>₹ 7,25,578</t>
+  </si>
+  <si>
+    <t>₹ 8,93,929</t>
+  </si>
+  <si>
+    <t>₹ 95,34,142</t>
+  </si>
+  <si>
+    <t>36.44%</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 3,95,211</t>
-  </si>
-  <si>
-    <t>₹ 4,43,707</t>
-  </si>
-  <si>
-    <t>₹ 44,53,438</t>
-  </si>
-  <si>
-    <t>40.62%</t>
+    <t>₹ 7,93,642</t>
+  </si>
+  <si>
+    <t>₹ 8,25,865</t>
+  </si>
+  <si>
+    <t>₹ 87,40,501</t>
+  </si>
+  <si>
+    <t>41.73%</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 4,34,434</t>
-  </si>
-  <si>
-    <t>₹ 4,04,484</t>
-  </si>
-  <si>
-    <t>₹ 40,19,004</t>
-  </si>
-  <si>
-    <t>46.41%</t>
+    <t>₹ 8,68,091</t>
+  </si>
+  <si>
+    <t>₹ 7,51,416</t>
+  </si>
+  <si>
+    <t>₹ 78,72,410</t>
+  </si>
+  <si>
+    <t>47.52%</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 4,77,551</t>
-  </si>
-  <si>
-    <t>₹ 3,61,367</t>
-  </si>
-  <si>
-    <t>₹ 35,41,453</t>
-  </si>
-  <si>
-    <t>52.78%</t>
+    <t>₹ 9,49,524</t>
+  </si>
+  <si>
+    <t>₹ 6,69,983</t>
+  </si>
+  <si>
+    <t>₹ 69,22,886</t>
+  </si>
+  <si>
+    <t>53.85%</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 5,24,947</t>
-  </si>
-  <si>
-    <t>₹ 3,13,971</t>
-  </si>
-  <si>
-    <t>₹ 30,16,506</t>
-  </si>
-  <si>
-    <t>59.78%</t>
+    <t>₹ 10,38,596</t>
+  </si>
+  <si>
+    <t>₹ 5,80,911</t>
+  </si>
+  <si>
+    <t>₹ 58,84,291</t>
+  </si>
+  <si>
+    <t>60.77%</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 5,77,046</t>
-  </si>
-  <si>
-    <t>₹ 2,61,872</t>
-  </si>
-  <si>
-    <t>₹ 24,39,460</t>
-  </si>
-  <si>
-    <t>67.47%</t>
+    <t>₹ 11,36,023</t>
+  </si>
+  <si>
+    <t>₹ 4,83,484</t>
+  </si>
+  <si>
+    <t>₹ 47,48,268</t>
+  </si>
+  <si>
+    <t>68.34%</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 6,34,317</t>
-  </si>
-  <si>
-    <t>₹ 2,04,601</t>
-  </si>
-  <si>
-    <t>₹ 18,05,143</t>
-  </si>
-  <si>
-    <t>75.93%</t>
+    <t>₹ 12,42,590</t>
+  </si>
+  <si>
+    <t>₹ 3,76,917</t>
+  </si>
+  <si>
+    <t>₹ 35,05,678</t>
+  </si>
+  <si>
+    <t>76.63%</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 6,97,271</t>
-  </si>
-  <si>
-    <t>₹ 1,41,647</t>
-  </si>
-  <si>
-    <t>₹ 11,07,872</t>
-  </si>
-  <si>
-    <t>85.23%</t>
+    <t>₹ 13,59,153</t>
+  </si>
+  <si>
+    <t>₹ 2,60,353</t>
+  </si>
+  <si>
+    <t>₹ 21,46,525</t>
+  </si>
+  <si>
+    <t>85.69%</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 7,66,474</t>
-  </si>
-  <si>
-    <t>₹ 72,444</t>
-  </si>
-  <si>
-    <t>₹ 3,41,398</t>
-  </si>
-  <si>
-    <t>95.45%</t>
+    <t>₹ 14,86,651</t>
+  </si>
+  <si>
+    <t>₹ 1,32,856</t>
+  </si>
+  <si>
+    <t>₹ 6,59,873</t>
+  </si>
+  <si>
+    <t>95.6%</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 8,151</t>
-  </si>
-  <si>
-    <t>₹ 21,875</t>
-  </si>
-  <si>
-    <t>₹ 3,71,424</t>
+    <t>₹ 14,921</t>
+  </si>
+  <si>
+    <t>₹ 31,250</t>
+  </si>
+  <si>
+    <t>₹ 7,06,044</t>
   </si>
   <si>
     <t>₹ 0</t>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -410,515 +410,515 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" t="s" s="0">
         <v>6</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" t="s" s="0">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="D5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" t="s" s="0">
         <v>30</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D6" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="D7" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" t="s" s="0">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="D8" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="D9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" t="s" s="0">
         <v>50</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" t="s" s="0">
         <v>53</v>
       </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="D10" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="D11" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" t="s" s="0">
         <v>60</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" t="s" s="0">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="D12" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="D13" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" t="s" s="0">
         <v>70</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>72</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="D14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="D14" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" t="s" s="0">
         <v>75</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="D15" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="D16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="D16" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>84</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" t="s" s="0">
         <v>85</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="D17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="D17" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>92</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" t="s" s="0">
         <v>93</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="D18" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" t="s" s="0">
         <v>95</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="D19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="D19" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="D20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D20" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" t="s" s="0">
         <v>105</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="D21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="D21" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" t="s" s="0">
         <v>116</v>
       </c>
     </row>

--- a/src/test/resources/yearOnYearPaymentDetails.xlsx
+++ b/src/test/resources/yearOnYearPaymentDetails.xlsx
@@ -41,325 +41,325 @@
     <t>2024</t>
   </si>
   <si>
-    <t>₹ 1,60,794</t>
-  </si>
-  <si>
-    <t>₹ 7,83,918</t>
-  </si>
-  <si>
-    <t>₹ 43,750</t>
-  </si>
-  <si>
-    <t>₹ 9,88,462</t>
-  </si>
-  <si>
-    <t>₹ 1,48,39,206</t>
-  </si>
-  <si>
-    <t>1.07%</t>
+    <t>₹ 75,519</t>
+  </si>
+  <si>
+    <t>₹ 4,13,850</t>
+  </si>
+  <si>
+    <t>₹ 30,625</t>
+  </si>
+  <si>
+    <t>₹ 5,19,994</t>
+  </si>
+  <si>
+    <t>₹ 74,24,481</t>
+  </si>
+  <si>
+    <t>1.01%</t>
   </si>
   <si>
     <t>2025</t>
   </si>
   <si>
-    <t>₹ 2,95,990</t>
-  </si>
-  <si>
-    <t>₹ 13,23,517</t>
-  </si>
-  <si>
-    <t>₹ 75,000</t>
-  </si>
-  <si>
-    <t>₹ 16,94,507</t>
-  </si>
-  <si>
-    <t>₹ 1,45,43,216</t>
-  </si>
-  <si>
-    <t>3.05%</t>
+    <t>₹ 1,39,565</t>
+  </si>
+  <si>
+    <t>₹ 6,99,353</t>
+  </si>
+  <si>
+    <t>₹ 52,500</t>
+  </si>
+  <si>
+    <t>₹ 8,91,418</t>
+  </si>
+  <si>
+    <t>₹ 72,84,916</t>
+  </si>
+  <si>
+    <t>2.87%</t>
   </si>
   <si>
     <t>2026</t>
   </si>
   <si>
-    <t>₹ 3,23,756</t>
-  </si>
-  <si>
-    <t>₹ 12,95,751</t>
-  </si>
-  <si>
-    <t>₹ 1,42,19,460</t>
-  </si>
-  <si>
-    <t>5.2%</t>
+    <t>₹ 1,53,417</t>
+  </si>
+  <si>
+    <t>₹ 6,85,501</t>
+  </si>
+  <si>
+    <t>₹ 71,31,499</t>
+  </si>
+  <si>
+    <t>4.91%</t>
   </si>
   <si>
     <t>2027</t>
   </si>
   <si>
-    <t>₹ 3,54,127</t>
-  </si>
-  <si>
-    <t>₹ 12,65,380</t>
-  </si>
-  <si>
-    <t>₹ 1,38,65,333</t>
-  </si>
-  <si>
-    <t>7.56%</t>
+    <t>₹ 1,68,643</t>
+  </si>
+  <si>
+    <t>₹ 6,70,275</t>
+  </si>
+  <si>
+    <t>₹ 69,62,856</t>
+  </si>
+  <si>
+    <t>7.16%</t>
   </si>
   <si>
     <t>2028</t>
   </si>
   <si>
-    <t>₹ 3,87,346</t>
-  </si>
-  <si>
-    <t>₹ 12,32,161</t>
-  </si>
-  <si>
-    <t>₹ 1,34,77,987</t>
-  </si>
-  <si>
-    <t>10.15%</t>
+    <t>₹ 1,85,381</t>
+  </si>
+  <si>
+    <t>₹ 6,53,537</t>
+  </si>
+  <si>
+    <t>₹ 67,77,475</t>
+  </si>
+  <si>
+    <t>9.63%</t>
   </si>
   <si>
     <t>2029</t>
   </si>
   <si>
-    <t>₹ 4,23,682</t>
-  </si>
-  <si>
-    <t>₹ 11,95,825</t>
-  </si>
-  <si>
-    <t>₹ 1,30,54,305</t>
-  </si>
-  <si>
-    <t>12.97%</t>
+    <t>₹ 2,03,779</t>
+  </si>
+  <si>
+    <t>₹ 6,35,139</t>
+  </si>
+  <si>
+    <t>₹ 65,73,696</t>
+  </si>
+  <si>
+    <t>12.35%</t>
   </si>
   <si>
     <t>2030</t>
   </si>
   <si>
-    <t>₹ 4,63,426</t>
-  </si>
-  <si>
-    <t>₹ 11,56,081</t>
-  </si>
-  <si>
-    <t>₹ 1,25,90,879</t>
-  </si>
-  <si>
-    <t>16.06%</t>
+    <t>₹ 2,24,004</t>
+  </si>
+  <si>
+    <t>₹ 6,14,914</t>
+  </si>
+  <si>
+    <t>₹ 63,49,692</t>
+  </si>
+  <si>
+    <t>15.34%</t>
   </si>
   <si>
     <t>2031</t>
   </si>
   <si>
-    <t>₹ 5,06,899</t>
-  </si>
-  <si>
-    <t>₹ 11,12,608</t>
-  </si>
-  <si>
-    <t>₹ 1,20,83,980</t>
-  </si>
-  <si>
-    <t>19.44%</t>
+    <t>₹ 2,46,236</t>
+  </si>
+  <si>
+    <t>₹ 5,92,682</t>
+  </si>
+  <si>
+    <t>₹ 61,03,456</t>
+  </si>
+  <si>
+    <t>18.62%</t>
   </si>
   <si>
     <t>2032</t>
   </si>
   <si>
-    <t>₹ 5,54,449</t>
-  </si>
-  <si>
-    <t>₹ 10,65,057</t>
-  </si>
-  <si>
-    <t>₹ 1,15,29,531</t>
-  </si>
-  <si>
-    <t>23.14%</t>
+    <t>₹ 2,70,674</t>
+  </si>
+  <si>
+    <t>₹ 5,68,244</t>
+  </si>
+  <si>
+    <t>₹ 58,32,782</t>
+  </si>
+  <si>
+    <t>22.23%</t>
   </si>
   <si>
     <t>2033</t>
   </si>
   <si>
-    <t>₹ 6,06,460</t>
-  </si>
-  <si>
-    <t>₹ 10,13,046</t>
-  </si>
-  <si>
-    <t>₹ 1,09,23,070</t>
-  </si>
-  <si>
-    <t>27.18%</t>
+    <t>₹ 2,97,538</t>
+  </si>
+  <si>
+    <t>₹ 5,41,380</t>
+  </si>
+  <si>
+    <t>₹ 55,35,245</t>
+  </si>
+  <si>
+    <t>26.2%</t>
   </si>
   <si>
     <t>2034</t>
   </si>
   <si>
-    <t>₹ 6,63,351</t>
-  </si>
-  <si>
-    <t>₹ 9,56,156</t>
-  </si>
-  <si>
-    <t>₹ 1,02,59,720</t>
-  </si>
-  <si>
-    <t>31.6%</t>
+    <t>₹ 3,27,068</t>
+  </si>
+  <si>
+    <t>₹ 5,11,850</t>
+  </si>
+  <si>
+    <t>₹ 52,08,177</t>
+  </si>
+  <si>
+    <t>30.56%</t>
   </si>
   <si>
     <t>2035</t>
   </si>
   <si>
-    <t>₹ 7,25,578</t>
-  </si>
-  <si>
-    <t>₹ 8,93,929</t>
-  </si>
-  <si>
-    <t>₹ 95,34,142</t>
-  </si>
-  <si>
-    <t>36.44%</t>
+    <t>₹ 3,59,528</t>
+  </si>
+  <si>
+    <t>₹ 4,79,390</t>
+  </si>
+  <si>
+    <t>₹ 48,48,649</t>
+  </si>
+  <si>
+    <t>35.35%</t>
   </si>
   <si>
     <t>2036</t>
   </si>
   <si>
-    <t>₹ 7,93,642</t>
-  </si>
-  <si>
-    <t>₹ 8,25,865</t>
-  </si>
-  <si>
-    <t>₹ 87,40,501</t>
-  </si>
-  <si>
-    <t>41.73%</t>
+    <t>₹ 3,95,211</t>
+  </si>
+  <si>
+    <t>₹ 4,43,707</t>
+  </si>
+  <si>
+    <t>₹ 44,53,438</t>
+  </si>
+  <si>
+    <t>40.62%</t>
   </si>
   <si>
     <t>2037</t>
   </si>
   <si>
-    <t>₹ 8,68,091</t>
-  </si>
-  <si>
-    <t>₹ 7,51,416</t>
-  </si>
-  <si>
-    <t>₹ 78,72,410</t>
-  </si>
-  <si>
-    <t>47.52%</t>
+    <t>₹ 4,34,434</t>
+  </si>
+  <si>
+    <t>₹ 4,04,484</t>
+  </si>
+  <si>
+    <t>₹ 40,19,004</t>
+  </si>
+  <si>
+    <t>46.41%</t>
   </si>
   <si>
     <t>2038</t>
   </si>
   <si>
-    <t>₹ 9,49,524</t>
-  </si>
-  <si>
-    <t>₹ 6,69,983</t>
-  </si>
-  <si>
-    <t>₹ 69,22,886</t>
-  </si>
-  <si>
-    <t>53.85%</t>
+    <t>₹ 4,77,551</t>
+  </si>
+  <si>
+    <t>₹ 3,61,367</t>
+  </si>
+  <si>
+    <t>₹ 35,41,453</t>
+  </si>
+  <si>
+    <t>52.78%</t>
   </si>
   <si>
     <t>2039</t>
   </si>
   <si>
-    <t>₹ 10,38,596</t>
-  </si>
-  <si>
-    <t>₹ 5,80,911</t>
-  </si>
-  <si>
-    <t>₹ 58,84,291</t>
-  </si>
-  <si>
-    <t>60.77%</t>
+    <t>₹ 5,24,947</t>
+  </si>
+  <si>
+    <t>₹ 3,13,971</t>
+  </si>
+  <si>
+    <t>₹ 30,16,506</t>
+  </si>
+  <si>
+    <t>59.78%</t>
   </si>
   <si>
     <t>2040</t>
   </si>
   <si>
-    <t>₹ 11,36,023</t>
-  </si>
-  <si>
-    <t>₹ 4,83,484</t>
-  </si>
-  <si>
-    <t>₹ 47,48,268</t>
-  </si>
-  <si>
-    <t>68.34%</t>
+    <t>₹ 5,77,046</t>
+  </si>
+  <si>
+    <t>₹ 2,61,872</t>
+  </si>
+  <si>
+    <t>₹ 24,39,460</t>
+  </si>
+  <si>
+    <t>67.47%</t>
   </si>
   <si>
     <t>2041</t>
   </si>
   <si>
-    <t>₹ 12,42,590</t>
-  </si>
-  <si>
-    <t>₹ 3,76,917</t>
-  </si>
-  <si>
-    <t>₹ 35,05,678</t>
-  </si>
-  <si>
-    <t>76.63%</t>
+    <t>₹ 6,34,317</t>
+  </si>
+  <si>
+    <t>₹ 2,04,601</t>
+  </si>
+  <si>
+    <t>₹ 18,05,143</t>
+  </si>
+  <si>
+    <t>75.93%</t>
   </si>
   <si>
     <t>2042</t>
   </si>
   <si>
-    <t>₹ 13,59,153</t>
-  </si>
-  <si>
-    <t>₹ 2,60,353</t>
-  </si>
-  <si>
-    <t>₹ 21,46,525</t>
-  </si>
-  <si>
-    <t>85.69%</t>
+    <t>₹ 6,97,271</t>
+  </si>
+  <si>
+    <t>₹ 1,41,647</t>
+  </si>
+  <si>
+    <t>₹ 11,07,872</t>
+  </si>
+  <si>
+    <t>85.23%</t>
   </si>
   <si>
     <t>2043</t>
   </si>
   <si>
-    <t>₹ 14,86,651</t>
-  </si>
-  <si>
-    <t>₹ 1,32,856</t>
-  </si>
-  <si>
-    <t>₹ 6,59,873</t>
-  </si>
-  <si>
-    <t>95.6%</t>
+    <t>₹ 7,66,474</t>
+  </si>
+  <si>
+    <t>₹ 72,444</t>
+  </si>
+  <si>
+    <t>₹ 3,41,398</t>
+  </si>
+  <si>
+    <t>95.45%</t>
   </si>
   <si>
     <t>2044</t>
   </si>
   <si>
-    <t>₹ 14,921</t>
-  </si>
-  <si>
-    <t>₹ 31,250</t>
-  </si>
-  <si>
-    <t>₹ 7,06,044</t>
+    <t>₹ 8,151</t>
+  </si>
+  <si>
+    <t>₹ 21,875</t>
+  </si>
+  <si>
+    <t>₹ 3,71,424</t>
   </si>
   <si>
     <t>₹ 0</t>
